--- a/Files/college_info/all_colleges/CVSR/CVSR_placements.xlsx
+++ b/Files/college_info/all_colleges/CVSR/CVSR_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdha\Desktop\python project\self\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdha\Desktop\python project\github\python_project-dataset\Files\college_info\all_colleges\CVSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF84FD81-1F0D-4FD7-9662-5ECC4B9357ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E8109B-509A-4F5B-8CB0-FB29170BC2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>COMPANY</t>
   </si>
@@ -39,313 +39,391 @@
     <t>Sl.NO</t>
   </si>
   <si>
-    <t>CISCO</t>
-  </si>
-  <si>
-    <t>STRIKETRU DIGITAL</t>
-  </si>
-  <si>
-    <t>LIFESPAN</t>
-  </si>
-  <si>
-    <t>ASHOK LEYLAND LTD</t>
-  </si>
-  <si>
-    <t>GRADIENTECH</t>
-  </si>
-  <si>
-    <t>CYIENT</t>
-  </si>
-  <si>
-    <t>ENATE</t>
-  </si>
-  <si>
-    <t>ELEVATE</t>
-  </si>
-  <si>
-    <t>MEDIA MINT</t>
-  </si>
-  <si>
-    <t>ACS SOLUTIONS</t>
-  </si>
-  <si>
-    <t>HINDUSTAN COCA- COLA BEVERAGES PVT LTD</t>
-  </si>
-  <si>
-    <t>ECLAT</t>
-  </si>
-  <si>
-    <t>AVRA LABORATORIES</t>
-  </si>
-  <si>
-    <t>REVIN LAB PVT LTD</t>
-  </si>
-  <si>
-    <t>WIPRO</t>
-  </si>
-  <si>
-    <t>GREENOVEL LIFE SCIENCES PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>AMAZON</t>
-  </si>
-  <si>
-    <t>HYUNDAI TRANSYS</t>
-  </si>
-  <si>
-    <t>B-BLACKSWAN</t>
-  </si>
-  <si>
-    <t>NUCLEONIX</t>
-  </si>
-  <si>
-    <t>APPLICATEAI</t>
-  </si>
-  <si>
-    <t>VEERARAHAVAN&amp;CO</t>
-  </si>
-  <si>
-    <t>VMWARE</t>
-  </si>
-  <si>
-    <t>FORD IT</t>
-  </si>
-  <si>
-    <t>COGNIZANT</t>
-  </si>
-  <si>
-    <t>ACCENTURE</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PWC</t>
-  </si>
-  <si>
-    <t>CAPGEMINI</t>
-  </si>
-  <si>
-    <t>ATTRA INFOTECH</t>
-  </si>
-  <si>
-    <t>CONCENT SOLUTIONS</t>
-  </si>
-  <si>
-    <t>HCL</t>
-  </si>
-  <si>
-    <t>HEXAWARE</t>
-  </si>
-  <si>
-    <t>INFOGAIN</t>
-  </si>
-  <si>
-    <t>NAGARRO</t>
-  </si>
-  <si>
-    <t>PIE INFOCOMM</t>
-  </si>
-  <si>
-    <t>REXNORD</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>VALUEMOMENTUM</t>
-  </si>
-  <si>
-    <t>MINDTREE</t>
-  </si>
-  <si>
-    <t>TECHMAHINDRA</t>
-  </si>
-  <si>
-    <t>PEGASUS</t>
-  </si>
-  <si>
-    <t>ZENQ</t>
-  </si>
-  <si>
-    <t>JUSTDIAL</t>
-  </si>
-  <si>
-    <t>MPHASIS</t>
-  </si>
-  <si>
-    <t>MSN</t>
-  </si>
-  <si>
-    <t>CONCENT</t>
-  </si>
-  <si>
-    <t>TEMENOS</t>
-  </si>
-  <si>
-    <t>IVY</t>
-  </si>
-  <si>
-    <t>GGKACS</t>
-  </si>
-  <si>
-    <t>INFOSYS</t>
-  </si>
-  <si>
-    <t>JS SOFTWARE SOLUTIONS</t>
-  </si>
-  <si>
-    <t>PHEONIX</t>
-  </si>
-  <si>
-    <t>AUROBINDO PHARMA</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>BITWISE GLOBAL</t>
-  </si>
-  <si>
-    <t>METAGOGY LEARNING SOLUTIONS</t>
-  </si>
-  <si>
-    <t>SUTHERLAND</t>
-  </si>
-  <si>
-    <t>TECHIMAX</t>
-  </si>
-  <si>
-    <t>SUTHERLAND(NV)</t>
-  </si>
-  <si>
-    <t>PENTAGONE SPACE</t>
-  </si>
-  <si>
-    <t>WIPRO MANUFACTURING</t>
-  </si>
-  <si>
-    <t>MEDPLUS</t>
-  </si>
-  <si>
-    <t>RBDS</t>
-  </si>
-  <si>
-    <t>VASANTH CHEMICALS</t>
-  </si>
-  <si>
-    <t>INTERNSHIP OFFERED BY WHITEHAT JR</t>
-  </si>
-  <si>
-    <t>OWNERS AND TENANT</t>
-  </si>
-  <si>
-    <t>THYSSENKRUPP</t>
-  </si>
-  <si>
-    <t>AMADEUS SOFTWARE</t>
-  </si>
-  <si>
-    <t>AVANTIX TECHNOLOGIES INC</t>
-  </si>
-  <si>
-    <t>CTRLS</t>
-  </si>
-  <si>
-    <t>CRTLS</t>
-  </si>
-  <si>
-    <t>WELLS FARGO</t>
-  </si>
-  <si>
-    <t>GENPACT</t>
-  </si>
-  <si>
-    <t>ZEMOSO</t>
-  </si>
-  <si>
-    <t>SOCIETE GENERALE GLOBAL SOLUTIONS CENTRE</t>
-  </si>
-  <si>
-    <t>FIRST AMERICAN INDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>ALLIED TECHNOLOGIES</t>
-  </si>
-  <si>
-    <t>AMS SEMI CONDUCTORS</t>
-  </si>
-  <si>
-    <t>IVY SOFTWARE DEVELOPMENT SERVICES PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>CONSULTADD</t>
-  </si>
-  <si>
-    <t>FLEX AI</t>
-  </si>
-  <si>
-    <t>TCS-DIGITAL</t>
-  </si>
-  <si>
-    <t>WILEY-MTHREE</t>
-  </si>
-  <si>
-    <t>KPMG GLOBAL SERVICES</t>
-  </si>
-  <si>
-    <t>HARMAN KARDON</t>
-  </si>
-  <si>
-    <t>NTT DATA</t>
-  </si>
-  <si>
-    <t>INCREFF</t>
-  </si>
-  <si>
-    <t>REVATURE</t>
-  </si>
-  <si>
-    <t>KOREAI</t>
-  </si>
-  <si>
-    <t>BRIDGEII</t>
-  </si>
-  <si>
-    <t>PLANETSPARK</t>
-  </si>
-  <si>
-    <t>PLANET SPARK</t>
-  </si>
-  <si>
-    <t>APPSASSOCIATES</t>
-  </si>
-  <si>
-    <t>INFOR</t>
-  </si>
-  <si>
-    <t>ONEDIGITALS</t>
-  </si>
-  <si>
-    <t>STG INFOTECH (INDIA) LLP</t>
-  </si>
-  <si>
-    <t>FACE</t>
-  </si>
-  <si>
-    <t>LAKSH SEMI CONDUCTORS</t>
-  </si>
-  <si>
-    <t>UNSCHOOL</t>
-  </si>
-  <si>
-    <t>HONOUR LABORATORIES</t>
-  </si>
-  <si>
-    <t>STRIDEINCORPORATION (SGC)</t>
-  </si>
-  <si>
-    <t>BYJU'S</t>
+    <t>AMAZON_38.5</t>
+  </si>
+  <si>
+    <t>AMAZON_33.0</t>
+  </si>
+  <si>
+    <t>VMWARE_15.45</t>
+  </si>
+  <si>
+    <t>ALLIED TECHNOLOGIES_15.0</t>
+  </si>
+  <si>
+    <t>CISCO_11.3</t>
+  </si>
+  <si>
+    <t>INFOSYS_8.0</t>
+  </si>
+  <si>
+    <t>AMS SEMI CONDUCTORS_8.0</t>
+  </si>
+  <si>
+    <t>IVY SOFTWARE DEVELOPMENT SERVICES PRIVATE LIMITED_8.0</t>
+  </si>
+  <si>
+    <t>CONSULTADD_8.0</t>
+  </si>
+  <si>
+    <t>AMADEUS SOFTWARE_7.7</t>
+  </si>
+  <si>
+    <t>AVANTIX TECHNOLOGIES INC_7.5</t>
+  </si>
+  <si>
+    <t>FLEX AI_7.0</t>
+  </si>
+  <si>
+    <t>TCS_7.0</t>
+  </si>
+  <si>
+    <t>TCS-DIGITAL_7.0</t>
+  </si>
+  <si>
+    <t>WILEY-MTHREE_7.0</t>
+  </si>
+  <si>
+    <t>PWC_7.0</t>
+  </si>
+  <si>
+    <t>IVY_6.95</t>
+  </si>
+  <si>
+    <t>ZEMOSO_6.9</t>
+  </si>
+  <si>
+    <t>ACCENTURE_6.79</t>
+  </si>
+  <si>
+    <t>COGNIZANT_6.75</t>
+  </si>
+  <si>
+    <t>TEMENOS_6.5</t>
+  </si>
+  <si>
+    <t>ACCENTURE_6.5</t>
+  </si>
+  <si>
+    <t>PWC_6.5</t>
+  </si>
+  <si>
+    <t>IVY_6.5</t>
+  </si>
+  <si>
+    <t>FORD IT_5.5</t>
+  </si>
+  <si>
+    <t>GGK_ACS_5.16</t>
+  </si>
+  <si>
+    <t>KPMG GLOBAL SERVICES._5.0</t>
+  </si>
+  <si>
+    <t>HARMAN KARDON_5.0</t>
+  </si>
+  <si>
+    <t>NTT DATA_5.0</t>
+  </si>
+  <si>
+    <t>METAGOGY LEARNING SOLUTIONS_5.0</t>
+  </si>
+  <si>
+    <t>INCREFF_5.0</t>
+  </si>
+  <si>
+    <t>REVATURE_5.0</t>
+  </si>
+  <si>
+    <t>KORE.AI_5.0</t>
+  </si>
+  <si>
+    <t>SOCIETE GENERALE GLOBAL SOLUTIONS CENTRE_4.95</t>
+  </si>
+  <si>
+    <t>CAPGEMINI_4.8</t>
+  </si>
+  <si>
+    <t>COGNIZANT_4.5</t>
+  </si>
+  <si>
+    <t>ACCENTURE_4.5</t>
+  </si>
+  <si>
+    <t>IBM_4.5</t>
+  </si>
+  <si>
+    <t>PWC_4.5</t>
+  </si>
+  <si>
+    <t>CAPGEMINI_4.5</t>
+  </si>
+  <si>
+    <t>ATTRA INFOTECH_4.5</t>
+  </si>
+  <si>
+    <t>WIPRO_4.5</t>
+  </si>
+  <si>
+    <t>MEDPLUS_4.0</t>
+  </si>
+  <si>
+    <t>PIE INFOCOMM_4.0</t>
+  </si>
+  <si>
+    <t>BRIDGEI2I_4.0</t>
+  </si>
+  <si>
+    <t>PLANETSPARK_4.0</t>
+  </si>
+  <si>
+    <t>PLANET SPARK_4.0</t>
+  </si>
+  <si>
+    <t>APPSASSOCIATES_4.0</t>
+  </si>
+  <si>
+    <t>INFOR_4.0</t>
+  </si>
+  <si>
+    <t>ONEDIGITALS_4.0</t>
+  </si>
+  <si>
+    <t>MINDTREE_4.0</t>
+  </si>
+  <si>
+    <t>COGNIZANT_4.0</t>
+  </si>
+  <si>
+    <t>STG INFOTECH (INDIA) LLP_4.0</t>
+  </si>
+  <si>
+    <t>BITWISE GLOBAL_3.85</t>
+  </si>
+  <si>
+    <t>CAPGEMINI_3.8</t>
+  </si>
+  <si>
+    <t>INFOSYS_3.8</t>
+  </si>
+  <si>
+    <t>METAGOGY LEARNING SOLUTIONS_3.8</t>
+  </si>
+  <si>
+    <t>CTRLS_3.75</t>
+  </si>
+  <si>
+    <t>CRTLS_3.75</t>
+  </si>
+  <si>
+    <t>INFOSYS_3.6</t>
+  </si>
+  <si>
+    <t>JS SOFTWARE SOLUTIONS_3.6</t>
+  </si>
+  <si>
+    <t>PHEONIX_3.6</t>
+  </si>
+  <si>
+    <t>AUROBINDO PHARMA_3.6</t>
+  </si>
+  <si>
+    <t>TCS_3.6</t>
+  </si>
+  <si>
+    <t>ACCENTURE_3.6</t>
+  </si>
+  <si>
+    <t>COGNIZANT_3.6</t>
+  </si>
+  <si>
+    <t>B4-BLACKSWAN_3.6</t>
+  </si>
+  <si>
+    <t>CONCENT SOLUTIONS_3.5</t>
+  </si>
+  <si>
+    <t>HCL_3.5</t>
+  </si>
+  <si>
+    <t>HEXAWARE_3.5</t>
+  </si>
+  <si>
+    <t>INFOGAIN_3.5</t>
+  </si>
+  <si>
+    <t>NAGARRO_3.5</t>
+  </si>
+  <si>
+    <t>PIE INFOCOMM_3.5</t>
+  </si>
+  <si>
+    <t>REXNORD_3.5</t>
+  </si>
+  <si>
+    <t>TCS_3.5</t>
+  </si>
+  <si>
+    <t>VALUEMOMENTUM_3.5</t>
+  </si>
+  <si>
+    <t>WIPRO_3.5</t>
+  </si>
+  <si>
+    <t>MINDTREE_3.5</t>
+  </si>
+  <si>
+    <t>AMAZON_3.43</t>
+  </si>
+  <si>
+    <t>HYUNDAI TRANSYS_3.4</t>
+  </si>
+  <si>
+    <t>STRIKETRU DIGITAL_3.3</t>
+  </si>
+  <si>
+    <t>LIFESPAN_3.3</t>
+  </si>
+  <si>
+    <t>ASHOK LEYLAND LTD_3.3</t>
+  </si>
+  <si>
+    <t>GRADIENTECH_3.3</t>
+  </si>
+  <si>
+    <t>CYIENT_3.3</t>
+  </si>
+  <si>
+    <t>ENATE_3.3</t>
+  </si>
+  <si>
+    <t>TECHMAHINDRA_3.25</t>
+  </si>
+  <si>
+    <t>ELEVATE_3.2</t>
+  </si>
+  <si>
+    <t>TECHM_3.16</t>
+  </si>
+  <si>
+    <t>MEDIA MINT_3.1</t>
+  </si>
+  <si>
+    <t>FACE_3.06</t>
+  </si>
+  <si>
+    <t>JS SOFTWARE SOLUTIONS_3.0</t>
+  </si>
+  <si>
+    <t>LAKSH SEMI CONDUCTORS_3.0</t>
+  </si>
+  <si>
+    <t>BYJU'S_3.0</t>
+  </si>
+  <si>
+    <t>UNSCHOOL_3.0</t>
+  </si>
+  <si>
+    <t>ACS SOLUTIONS_3.3</t>
+  </si>
+  <si>
+    <t>HINDUSTAN COCA- COLA BEVERAGES PVT LTD_3.3</t>
+  </si>
+  <si>
+    <t>ECLAT_3.3</t>
+  </si>
+  <si>
+    <t>AVRA LABORATORIES_3.3</t>
+  </si>
+  <si>
+    <t>REVIN LAB PVT LTD_3.3</t>
+  </si>
+  <si>
+    <t>WIPRO_3.3</t>
+  </si>
+  <si>
+    <t>GREENOVEL LIFE SCIENCES PRIVATE LIMITED_3.3</t>
+  </si>
+  <si>
+    <t>B4-BLACKSWAN_3.3</t>
+  </si>
+  <si>
+    <t>SUTHERLAND_2.8</t>
+  </si>
+  <si>
+    <t>TECHIMAX_2.8</t>
+  </si>
+  <si>
+    <t>ZENQ_2.8</t>
+  </si>
+  <si>
+    <t>SUTHERLAND(NV)_2.8</t>
+  </si>
+  <si>
+    <t>PENTAGONE SPACE_2.8</t>
+  </si>
+  <si>
+    <t>WIPRO MANUFACTURING_2.8</t>
+  </si>
+  <si>
+    <t>WELLS FARGO_2.7</t>
+  </si>
+  <si>
+    <t>PEGASUS_2.5</t>
+  </si>
+  <si>
+    <t>ZENQ_2.5</t>
+  </si>
+  <si>
+    <t>JUSTDIAL_2.5</t>
+  </si>
+  <si>
+    <t>MPHASIS_2.5</t>
+  </si>
+  <si>
+    <t>NUCLEONIX_2.4</t>
+  </si>
+  <si>
+    <t>APPLICATEAI_2.4</t>
+  </si>
+  <si>
+    <t>HONOUR LABORATORIES_2.0</t>
+  </si>
+  <si>
+    <t>STRIDEINCORPORATION (SGC)_2.0</t>
+  </si>
+  <si>
+    <t>FIRST AMERICAN INDIA PVT. LTD_1.93</t>
+  </si>
+  <si>
+    <t>MEDPLUS_1.8</t>
+  </si>
+  <si>
+    <t>RBDS_1.8</t>
+  </si>
+  <si>
+    <t>VASANTH CHEMICALS_1.8</t>
+  </si>
+  <si>
+    <t>INTERNSHIP OFFERED BY WHITEHAT JR_1.8</t>
+  </si>
+  <si>
+    <t>OWNERS AND TENANT_1.8</t>
+  </si>
+  <si>
+    <t>THYSSENKRUPP_1.8</t>
+  </si>
+  <si>
+    <t>GENPACT_1.7</t>
+  </si>
+  <si>
+    <t>MSN_1.5</t>
+  </si>
+  <si>
+    <t>CONCENT_1.5</t>
+  </si>
+  <si>
+    <t>VEERARAHAVAN&amp;CO_1.4</t>
   </si>
 </sst>
 </file>
@@ -674,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>38.5</v>
@@ -716,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>33</v>
@@ -730,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>15.45</v>
@@ -744,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -758,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>11.3</v>
@@ -772,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -786,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -800,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -814,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -828,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>7.7</v>
@@ -842,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>7.5</v>
@@ -856,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -870,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -884,7 +962,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -898,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -912,7 +990,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -926,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>6.95</v>
@@ -940,7 +1018,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>6.9</v>
@@ -954,7 +1032,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>6.79</v>
@@ -968,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>6.75</v>
@@ -982,7 +1060,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>6.5</v>
@@ -996,7 +1074,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>6.5</v>
@@ -1010,7 +1088,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>6.5</v>
@@ -1024,7 +1102,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>6.5</v>
@@ -1038,7 +1116,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>5.5</v>
@@ -1052,10 +1130,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>5.16</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1066,7 +1144,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -1080,7 +1158,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1094,7 +1172,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -1108,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1122,7 +1200,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1136,7 +1214,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1150,7 +1228,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1164,7 +1242,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>4.95</v>
@@ -1178,7 +1256,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>4.8</v>
@@ -1192,7 +1270,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>4.5</v>
@@ -1206,7 +1284,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>4.5</v>
@@ -1220,7 +1298,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>4.5</v>
@@ -1234,7 +1312,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>4.5</v>
@@ -1248,7 +1326,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>4.5</v>
@@ -1262,7 +1340,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>4.5</v>
@@ -1276,7 +1354,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>4.5</v>
@@ -1290,7 +1368,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1304,7 +1382,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1318,7 +1396,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1332,7 +1410,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1346,7 +1424,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1360,7 +1438,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1374,7 +1452,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1388,7 +1466,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1402,7 +1480,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1416,7 +1494,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1430,7 +1508,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1444,7 +1522,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>3.85</v>
@@ -1458,7 +1536,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>3.8</v>
@@ -1472,7 +1550,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>3.8</v>
@@ -1500,7 +1578,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>3.75</v>
@@ -1514,7 +1592,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>3.75</v>
@@ -1528,7 +1606,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>3.6</v>
@@ -1542,7 +1620,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>3.6</v>
@@ -1556,7 +1634,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>3.6</v>
@@ -1570,7 +1648,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>3.6</v>
@@ -1584,7 +1662,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>3.6</v>
@@ -1598,7 +1676,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>3.6</v>
@@ -1612,7 +1690,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>3.6</v>
@@ -1626,7 +1704,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>3.6</v>
@@ -1640,7 +1718,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>3.5</v>
@@ -1654,7 +1732,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>3.5</v>
@@ -1668,7 +1746,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>3.5</v>
@@ -1682,7 +1760,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>3.5</v>
@@ -1696,7 +1774,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>3.5</v>
@@ -1710,7 +1788,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>3.5</v>
@@ -1724,7 +1802,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>3.5</v>
@@ -1738,7 +1816,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <v>3.5</v>
@@ -1752,7 +1830,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>3.5</v>
@@ -1766,7 +1844,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>3.5</v>
@@ -1780,7 +1858,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>3.5</v>
@@ -1794,7 +1872,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C80">
         <v>3.43</v>
@@ -1808,7 +1886,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>3.4</v>
@@ -1822,7 +1900,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>3.3</v>
@@ -1836,7 +1914,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>3.3</v>
@@ -1850,7 +1928,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="C84">
         <v>3.3</v>
@@ -1864,7 +1942,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>3.3</v>
@@ -1878,7 +1956,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C86">
         <v>3.3</v>
@@ -1892,7 +1970,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C87">
         <v>3.3</v>
@@ -1906,7 +1984,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>3.25</v>
@@ -1920,7 +1998,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <v>3.2</v>
@@ -1934,7 +2012,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>3.16</v>
@@ -1948,7 +2026,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>3.1</v>
@@ -1962,7 +2040,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>3.06</v>
@@ -1976,7 +2054,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1990,7 +2068,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,7 +2082,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2018,7 +2096,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2032,7 +2110,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>3.3</v>
@@ -2046,7 +2124,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C98">
         <v>3.3</v>
@@ -2060,7 +2138,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C99">
         <v>3.3</v>
@@ -2074,7 +2152,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>3.3</v>
@@ -2088,7 +2166,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C101">
         <v>3.3</v>
@@ -2102,7 +2180,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C102">
         <v>3.3</v>
@@ -2116,7 +2194,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C103">
         <v>3.3</v>
@@ -2130,7 +2208,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C104">
         <v>3.3</v>
@@ -2144,7 +2222,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C105">
         <v>2.8</v>
@@ -2158,7 +2236,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <v>2.8</v>
@@ -2172,7 +2250,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C107">
         <v>2.8</v>
@@ -2186,7 +2264,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C108">
         <v>2.8</v>
@@ -2200,7 +2278,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C109">
         <v>2.8</v>
@@ -2214,7 +2292,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C110">
         <v>2.8</v>
@@ -2228,7 +2306,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C111">
         <v>2.7</v>
@@ -2242,7 +2320,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C112">
         <v>2.5</v>
@@ -2256,7 +2334,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C113">
         <v>2.5</v>
@@ -2270,7 +2348,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>2.5</v>
@@ -2284,7 +2362,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C115">
         <v>2.5</v>
@@ -2298,7 +2376,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C116">
         <v>2.4</v>
@@ -2312,7 +2390,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="C117">
         <v>2.4</v>
@@ -2326,7 +2404,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -2340,7 +2418,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -2354,7 +2432,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C120">
         <v>1.93</v>
@@ -2368,7 +2446,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C121">
         <v>1.8</v>
@@ -2382,7 +2460,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C122">
         <v>1.8</v>
@@ -2396,7 +2474,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C123">
         <v>1.8</v>
@@ -2410,7 +2488,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C124">
         <v>1.8</v>
@@ -2424,7 +2502,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C125">
         <v>1.8</v>
@@ -2438,7 +2516,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C126">
         <v>1.8</v>
@@ -2452,7 +2530,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="C127">
         <v>1.7</v>
@@ -2466,7 +2544,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C128">
         <v>1.5</v>
@@ -2480,7 +2558,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C129">
         <v>1.5</v>
@@ -2494,7 +2572,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="C130">
         <v>1.4</v>
